--- a/web-automation-framework/target/classes/excel/data1.xlsx
+++ b/web-automation-framework/target/classes/excel/data1.xlsx
@@ -1421,14 +1421,13 @@
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+      <selection activeCell="D2" sqref="D2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="9" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="13" width="22.7109375" customWidth="1"/>
+    <col min="4" max="13" width="22.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1478,6 +1477,7 @@
         <v>2</v>
       </c>
       <c r="D2"/>
+      <c r="E2"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1487,6 +1487,7 @@
         <v>3</v>
       </c>
       <c r="D3"/>
+      <c r="E3"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1496,6 +1497,7 @@
         <v>4</v>
       </c>
       <c r="D4"/>
+      <c r="E4"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1505,6 +1507,7 @@
         <v>5</v>
       </c>
       <c r="D5"/>
+      <c r="E5"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1514,6 +1517,7 @@
         <v>6</v>
       </c>
       <c r="D6"/>
+      <c r="E6"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1523,6 +1527,7 @@
         <v>7</v>
       </c>
       <c r="D7"/>
+      <c r="E7"/>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1532,6 +1537,7 @@
         <v>8</v>
       </c>
       <c r="D8"/>
+      <c r="E8"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1541,6 +1547,7 @@
         <v>9</v>
       </c>
       <c r="D9"/>
+      <c r="E9"/>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1550,6 +1557,7 @@
         <v>10</v>
       </c>
       <c r="D10"/>
+      <c r="E10"/>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1559,6 +1567,7 @@
         <v>11</v>
       </c>
       <c r="D11"/>
+      <c r="E11"/>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/web-automation-framework/target/classes/excel/data1.xlsx
+++ b/web-automation-framework/target/classes/excel/data1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14670" windowHeight="2760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -19,114 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>DATA</t>
   </si>
   <si>
     <t>TC</t>
-  </si>
-  <si>
-    <t>123900000023120
-123900000023121
-123900000023122
-123900000023123
-123900000023124
-123900000023125
-123900000023126
-123900000023127
-123900000023128
-123900000023129
-123900000023130
-123900000023131
-123900000023132
-123900000023133
-123900000023134
-123900000023135
-123900000023136
-123900000023137
-123900000023138
-123900000023139
-123900000023140
-123900000023141
-123900000023142
-123900000023143
-123900000023144
-123900000023145
-123900000023146
-123900000023147
-123900000023148
-123900000023149
-123900000023150
-123900000023151
-123900000023152
-123900000023153
-123900000023154
-123900000023155
-123900000023156
-123900000023157
-123900000023158
-123900000023159
-123900000023160
-123900000023161
-123900000023162
-123900000023163
-123900000023164
-123900000023165
-123900000023166
-123900000023167
-123900000023168
-123900000023169
-123900000023170
-123900000023171
-123900000023172
-123900000023173
-123900000023174
-123900000023175
-123900000023176
-123900000023177
-123900000023178
-123900000023179
-123900000023180
-123900000023181
-123900000023182
-123900000023183
-123900000023184
-123900000023185
-123900000023186
-123900000023187
-123900000023188
-123900000023189
-123900000023190
-123900000023191
-123900000023192
-123900000023193
-123900000023194
-123900000023195
-123900000023196
-123900000023197
-123900000023198
-123900000023199
-123900000023200
-123900000023201
-123900000023202
-123900000023203
-123900000023204
-123900000023205
-123900000023206
-123900000023207
-123900000023208
-123900000023209
-123900000023210
-123900000023211
-123900000023212
-123900000023213
-123900000023214
-123900000023215
-123900000023216
-123900000023217
-123900000023218
-123900000023219</t>
   </si>
   <si>
     <t>123900000023220
@@ -1075,6 +973,111 @@
   </si>
   <si>
     <t>RESULTADOS (TC10)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>123900000130181
+123900000130182
+123900000130183
+123900000130184
+123900000130185
+123900000130186
+123900000130187
+123900000130188
+123900000130189
+123900000130190
+123900000130191
+123900000130192
+123900000130193
+123900000130194
+123900000130195
+123900000130196
+123900000130197
+123900000130198
+123900000130199
+123900000130200
+123900000130201
+123900000130202
+123900000130203
+123900000130204
+123900000130205
+123900000130206
+123900000130207
+123900000130208
+123900000130209
+123900000130210
+123900000130211
+123900000130212
+123900000130213
+123900000130214
+123900000130215
+123900000130216
+123900000130217
+123900000130218
+123900000130219
+123900000130220
+123900000130221
+123900000130222
+123900000130223
+123900000130224
+123900000130225
+123900000130226
+123900000130227
+123900000130228
+123900000130229
+123900000130230
+123900000130231
+123900000130232
+123900000130233
+123900000130234
+123900000130235
+123900000130236
+123900000130237
+123900000130238
+123900000130239
+123900000130240
+123900000130241
+123900000130242
+123900000130243
+123900000130244
+123900000130245
+123900000130246
+123900000130247
+123900000130248
+123900000130249
+123900000130250
+123900000130251
+123900000130252
+123900000130253
+123900000130254
+123900000130255
+123900000130256
+123900000130257
+123900000130258
+123900000130259
+123900000130260
+123900000130261
+123900000130262
+123900000130263
+123900000130264
+123900000130265
+123900000130266
+123900000130267
+123900000130268
+123900000130269
+123900000130270
+123900000130271
+123900000130272
+123900000130273
+123900000130274
+123900000130275
+123900000130276
+123900000130277
+123900000130278
+123900000130279
+123900000130280</t>
   </si>
 </sst>
 </file>
@@ -1421,7 +1424,7 @@
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,34 +1442,34 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1474,100 +1477,198 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3"/>
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
       <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4"/>
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
       <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5"/>
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
       <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6"/>
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
       <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7"/>
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
       <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8"/>
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
       <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9"/>
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
       <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10"/>
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
       <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11"/>
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
       <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
